--- a/random_data.xlsx
+++ b/random_data.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacky/Deeplearning/hanslaser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C96B1B-B3DB-DA4A-A2DD-58D17C8872E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8735-D031-D047-A18F-1CEA391542C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$2:$F$164</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$164</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>速度</t>
   </si>
@@ -48,6 +42,18 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -65,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -83,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,13 +113,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1437,16 +1458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1759,15 +1780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,8 +1810,17 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1815,8 +1845,17 @@
       <c r="H2">
         <v>-0.37743586301803589</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>62.85</v>
+      </c>
+      <c r="J2">
+        <v>-0.43</v>
+      </c>
+      <c r="K2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1841,8 +1880,17 @@
       <c r="H3">
         <v>0.59857112169265747</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>63.78</v>
+      </c>
+      <c r="J3">
+        <v>-0.4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1867,8 +1915,17 @@
       <c r="H4">
         <v>0.30171620845794678</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>62.21</v>
+      </c>
+      <c r="J4">
+        <v>-0.43</v>
+      </c>
+      <c r="K4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1893,8 +1950,17 @@
       <c r="H5">
         <v>0.52059239149093628</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>62.06</v>
+      </c>
+      <c r="J5">
+        <v>-0.43</v>
+      </c>
+      <c r="K5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1919,8 +1985,17 @@
       <c r="H6">
         <v>-8.4892481565475464E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>61.11</v>
+      </c>
+      <c r="J6">
+        <v>-0.39</v>
+      </c>
+      <c r="K6">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1945,8 +2020,17 @@
       <c r="H7">
         <v>-1.1694891452789311</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="J7">
+        <v>-0.53</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1971,8 +2055,17 @@
       <c r="H8">
         <v>0.49078720808029169</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>61.86</v>
+      </c>
+      <c r="J8">
+        <v>-0.41</v>
+      </c>
+      <c r="K8">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1997,8 +2090,17 @@
       <c r="H9">
         <v>-0.45208212733268738</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>64.88</v>
+      </c>
+      <c r="J9">
+        <v>-0.46</v>
+      </c>
+      <c r="K9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2023,8 +2125,17 @@
       <c r="H10">
         <v>-0.43588399887084961</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>65.92</v>
+      </c>
+      <c r="J10">
+        <v>-0.54</v>
+      </c>
+      <c r="K10">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2049,8 +2160,17 @@
       <c r="H11">
         <v>-0.30014669895172119</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>60.89</v>
+      </c>
+      <c r="J11">
+        <v>-0.36</v>
+      </c>
+      <c r="K11">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2075,8 +2195,17 @@
       <c r="H12">
         <v>-0.99384576082229614</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>63.05</v>
+      </c>
+      <c r="J12">
+        <v>-0.48</v>
+      </c>
+      <c r="K12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2101,8 +2230,17 @@
       <c r="H13">
         <v>-0.13335910439491269</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>63.2</v>
+      </c>
+      <c r="J13">
+        <v>-0.52</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2127,8 +2265,17 @@
       <c r="H14">
         <v>-1.2092809677124019</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>68.709999999999994</v>
+      </c>
+      <c r="J14">
+        <v>-0.77</v>
+      </c>
+      <c r="K14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2153,8 +2300,17 @@
       <c r="H15">
         <v>0.1038040518760681</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>62.52</v>
+      </c>
+      <c r="J15">
+        <v>-0.47</v>
+      </c>
+      <c r="K15">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2179,8 +2335,17 @@
       <c r="H16">
         <v>-1.350859642028809</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>63.95</v>
+      </c>
+      <c r="J16">
+        <v>-0.52</v>
+      </c>
+      <c r="K16">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2205,8 +2370,17 @@
       <c r="H17">
         <v>-1.231945276260376</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="J17">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K17">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2231,8 +2405,17 @@
       <c r="H18">
         <v>-1.3316314220428469</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J18">
+        <v>-0.45</v>
+      </c>
+      <c r="K18">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2257,8 +2440,17 @@
       <c r="H19">
         <v>-1.5376666784286499</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>65.25</v>
+      </c>
+      <c r="J19">
+        <v>-0.46</v>
+      </c>
+      <c r="K19">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2283,8 +2475,17 @@
       <c r="H20">
         <v>0.1070754528045654</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>63.1</v>
+      </c>
+      <c r="J20">
+        <v>-0.4</v>
+      </c>
+      <c r="K20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2309,8 +2510,17 @@
       <c r="H21">
         <v>-0.57799553871154785</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>60.86</v>
+      </c>
+      <c r="J21">
+        <v>-0.39</v>
+      </c>
+      <c r="K21">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2335,8 +2545,17 @@
       <c r="H22">
         <v>-1.1208746433258061</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J22">
+        <v>-0.47</v>
+      </c>
+      <c r="K22">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2361,8 +2580,17 @@
       <c r="H23">
         <v>0.53136295080184937</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>62.29</v>
+      </c>
+      <c r="J23">
+        <v>-0.59</v>
+      </c>
+      <c r="K23">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2387,8 +2615,17 @@
       <c r="H24">
         <v>-0.62180948257446289</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>63.37</v>
+      </c>
+      <c r="J24">
+        <v>-0.41</v>
+      </c>
+      <c r="K24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2413,8 +2650,17 @@
       <c r="H25">
         <v>-1.7733030319213869</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>63.2</v>
+      </c>
+      <c r="J25">
+        <v>-0.51</v>
+      </c>
+      <c r="K25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2439,8 +2685,17 @@
       <c r="H26">
         <v>0.42980796098709112</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>63.01</v>
+      </c>
+      <c r="J26">
+        <v>-0.51</v>
+      </c>
+      <c r="K26">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2465,8 +2720,17 @@
       <c r="H27">
         <v>0.67336779832839966</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>63.53</v>
+      </c>
+      <c r="J27">
+        <v>-0.39</v>
+      </c>
+      <c r="K27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2491,8 +2755,17 @@
       <c r="H28">
         <v>0.4847368597984314</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>67.12</v>
+      </c>
+      <c r="J28">
+        <v>-0.51</v>
+      </c>
+      <c r="K28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2517,8 +2790,17 @@
       <c r="H29">
         <v>-1.255024313926697</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>63.46</v>
+      </c>
+      <c r="J29">
+        <v>-0.64</v>
+      </c>
+      <c r="K29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2543,8 +2825,17 @@
       <c r="H30">
         <v>-0.49808186292648321</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>63.45</v>
+      </c>
+      <c r="J30">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K30">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2569,8 +2860,17 @@
       <c r="H31">
         <v>-0.90836954116821289</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>62.79</v>
+      </c>
+      <c r="J31">
+        <v>-0.46</v>
+      </c>
+      <c r="K31">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2595,8 +2895,17 @@
       <c r="H32">
         <v>-1.178547859191895</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="J32">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K32">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2621,8 +2930,17 @@
       <c r="H33">
         <v>-1.8342669010162349</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>62.11</v>
+      </c>
+      <c r="J33">
+        <v>-0.48</v>
+      </c>
+      <c r="K33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2647,8 +2965,17 @@
       <c r="H34">
         <v>-1.555106639862061</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>59.28</v>
+      </c>
+      <c r="J34">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2673,8 +3000,17 @@
       <c r="H35">
         <v>-1.5908524990081789</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>60.15</v>
+      </c>
+      <c r="J35">
+        <v>-0.4</v>
+      </c>
+      <c r="K35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2699,8 +3035,17 @@
       <c r="H36">
         <v>-1.6969995498657231</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>61.67</v>
+      </c>
+      <c r="J36">
+        <v>-0.37</v>
+      </c>
+      <c r="K36">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2725,8 +3070,17 @@
       <c r="H37">
         <v>-1.648213863372803</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>62.48</v>
+      </c>
+      <c r="J37">
+        <v>-0.37</v>
+      </c>
+      <c r="K37">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2751,8 +3105,17 @@
       <c r="H38">
         <v>-2.060545682907104</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="J38">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K38">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2777,8 +3140,17 @@
       <c r="H39">
         <v>-0.59950155019760132</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>60.35</v>
+      </c>
+      <c r="J39">
+        <v>-0.63</v>
+      </c>
+      <c r="K39">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2803,8 +3175,17 @@
       <c r="H40">
         <v>-2.1178925037384029</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>62.67</v>
+      </c>
+      <c r="J40">
+        <v>-0.48</v>
+      </c>
+      <c r="K40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2829,8 +3210,17 @@
       <c r="H41">
         <v>-2.129480361938477</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>62.72</v>
+      </c>
+      <c r="J41">
+        <v>-0.51</v>
+      </c>
+      <c r="K41">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2855,8 +3245,17 @@
       <c r="H42">
         <v>-2.1340420246124272</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>64.63</v>
+      </c>
+      <c r="J42">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K42">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2881,8 +3280,17 @@
       <c r="H43">
         <v>-1.662345409393311</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>61.65</v>
+      </c>
+      <c r="J43">
+        <v>-0.78</v>
+      </c>
+      <c r="K43">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2907,8 +3315,17 @@
       <c r="H44">
         <v>-2.1816437244415279</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>64.64</v>
+      </c>
+      <c r="J44">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K44">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2933,8 +3350,17 @@
       <c r="H45">
         <v>-1.596920251846313</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>63.32</v>
+      </c>
+      <c r="J45">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K45">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2959,8 +3385,17 @@
       <c r="H46">
         <v>-1.1355195045471189</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>61.83</v>
+      </c>
+      <c r="J46">
+        <v>-0.5</v>
+      </c>
+      <c r="K46">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2985,8 +3420,17 @@
       <c r="H47">
         <v>-2.185969352722168</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>61.34</v>
+      </c>
+      <c r="J47">
+        <v>-0.49</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3011,8 +3455,17 @@
       <c r="H48">
         <v>-1.9335751533508301</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>60.94</v>
+      </c>
+      <c r="J48">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3037,8 +3490,17 @@
       <c r="H49">
         <v>-1.714608430862427</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>59.84</v>
+      </c>
+      <c r="J49">
+        <v>0.45</v>
+      </c>
+      <c r="K49">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3063,8 +3525,17 @@
       <c r="H50">
         <v>-2.2593317031860352</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>60.22</v>
+      </c>
+      <c r="J50">
+        <v>-0.51</v>
+      </c>
+      <c r="K50">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3089,8 +3560,17 @@
       <c r="H51">
         <v>-1.7368538379669189</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>59.54</v>
+      </c>
+      <c r="J51">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K51">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3115,8 +3595,17 @@
       <c r="H52">
         <v>-2.2890458106994629</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>60.38</v>
+      </c>
+      <c r="J52">
+        <v>0.47</v>
+      </c>
+      <c r="K52">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3141,8 +3630,17 @@
       <c r="H53">
         <v>-2.2750217914581299</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>64.59</v>
+      </c>
+      <c r="J53">
+        <v>0.53</v>
+      </c>
+      <c r="K53">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3167,8 +3665,17 @@
       <c r="H54">
         <v>-2.0766441822052002</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>66.75</v>
+      </c>
+      <c r="J54">
+        <v>-0.53</v>
+      </c>
+      <c r="K54">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3193,8 +3700,17 @@
       <c r="H55">
         <v>-1.831146717071533</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>62.1</v>
+      </c>
+      <c r="J55">
+        <v>0.45</v>
+      </c>
+      <c r="K55">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3219,8 +3735,17 @@
       <c r="H56">
         <v>-1.8156754970550539</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>65.44</v>
+      </c>
+      <c r="J56">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K56">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3245,8 +3770,17 @@
       <c r="H57">
         <v>-2.2164516448974609</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>64.52</v>
+      </c>
+      <c r="J57">
+        <v>-0.46</v>
+      </c>
+      <c r="K57">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3271,8 +3805,17 @@
       <c r="H58">
         <v>-2.305946826934814</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>67.11</v>
+      </c>
+      <c r="J58">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K58">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3297,8 +3840,17 @@
       <c r="H59">
         <v>-1.917788505554199</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>65.25</v>
+      </c>
+      <c r="J59">
+        <v>-0.6</v>
+      </c>
+      <c r="K59">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3323,8 +3875,17 @@
       <c r="H60">
         <v>-0.97432178258895874</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="J60">
+        <v>-0.59</v>
+      </c>
+      <c r="K60">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3349,8 +3910,17 @@
       <c r="H61">
         <v>-1.8091259002685549</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>62.11</v>
+      </c>
+      <c r="J61">
+        <v>-0.74</v>
+      </c>
+      <c r="K61">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3375,8 +3945,17 @@
       <c r="H62">
         <v>-0.37144649028778082</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>64.14</v>
+      </c>
+      <c r="J62">
+        <v>-0.75</v>
+      </c>
+      <c r="K62">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3401,8 +3980,17 @@
       <c r="H63">
         <v>0.1148906946182251</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>59.98</v>
+      </c>
+      <c r="J63">
+        <v>-0.59</v>
+      </c>
+      <c r="K63">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3427,8 +4015,17 @@
       <c r="H64">
         <v>-2.342146635055542</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>60.87</v>
+      </c>
+      <c r="J64">
+        <v>-0.53</v>
+      </c>
+      <c r="K64">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3453,8 +4050,17 @@
       <c r="H65">
         <v>-2.3932580947875981</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>63.02</v>
+      </c>
+      <c r="J65">
+        <v>-0.72</v>
+      </c>
+      <c r="K65">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3479,8 +4085,17 @@
       <c r="H66">
         <v>-0.32999634742736822</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>61</v>
+      </c>
+      <c r="J66">
+        <v>-0.47</v>
+      </c>
+      <c r="K66">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3505,8 +4120,17 @@
       <c r="H67">
         <v>-2.1641149520874019</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>68.56</v>
+      </c>
+      <c r="J67">
+        <v>-0.62</v>
+      </c>
+      <c r="K67">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3531,8 +4155,17 @@
       <c r="H68">
         <v>-0.41353857517242432</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>60.43</v>
+      </c>
+      <c r="J68">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K68">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3557,8 +4190,17 @@
       <c r="H69">
         <v>-2.053240299224854</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>60.25</v>
+      </c>
+      <c r="J69">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K69">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3583,8 +4225,17 @@
       <c r="H70">
         <v>-2.5495202541351318</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>65.44</v>
+      </c>
+      <c r="J70">
+        <v>-0.59</v>
+      </c>
+      <c r="K70">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3609,8 +4260,17 @@
       <c r="H71">
         <v>-2.6296815872192378</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>67.59</v>
+      </c>
+      <c r="J71">
+        <v>-0.76</v>
+      </c>
+      <c r="K71">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3635,8 +4295,17 @@
       <c r="H72">
         <v>-2.6920311450958252</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>62.03</v>
+      </c>
+      <c r="J72">
+        <v>-0.77</v>
+      </c>
+      <c r="K72">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3661,8 +4330,17 @@
       <c r="H73">
         <v>-2.7483515739440918</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>62.24</v>
+      </c>
+      <c r="J73">
+        <v>-0.78</v>
+      </c>
+      <c r="K73">
+        <v>-1.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3687,8 +4365,17 @@
       <c r="H74">
         <v>-2.674159049987793</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>62.15</v>
+      </c>
+      <c r="J74">
+        <v>-0.4</v>
+      </c>
+      <c r="K74">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3713,8 +4400,17 @@
       <c r="H75">
         <v>-2.3609390258789058</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>61.6</v>
+      </c>
+      <c r="J75">
+        <v>-0.52</v>
+      </c>
+      <c r="K75">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3739,8 +4435,17 @@
       <c r="H76">
         <v>-0.15705668926239011</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>62.77</v>
+      </c>
+      <c r="J76">
+        <v>-0.82</v>
+      </c>
+      <c r="K76">
+        <v>-2.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3765,8 +4470,17 @@
       <c r="H77">
         <v>-2.9512772560119629</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>60.39</v>
+      </c>
+      <c r="J77">
+        <v>-0.6</v>
+      </c>
+      <c r="K77">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3791,8 +4505,17 @@
       <c r="H78">
         <v>-2.972691535949707</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>61.6</v>
+      </c>
+      <c r="J78">
+        <v>-0.73</v>
+      </c>
+      <c r="K78">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3817,8 +4540,17 @@
       <c r="H79">
         <v>-3.022719144821167</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="J79">
+        <v>-0.74</v>
+      </c>
+      <c r="K79">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3843,8 +4575,17 @@
       <c r="H80">
         <v>-2.7143485546112061</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>61.13</v>
+      </c>
+      <c r="J80">
+        <v>-0.71</v>
+      </c>
+      <c r="K80">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3869,8 +4610,17 @@
       <c r="H81">
         <v>-2.5592091083526611</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>60.94</v>
+      </c>
+      <c r="J81">
+        <v>-0.67</v>
+      </c>
+      <c r="K81">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3895,8 +4645,17 @@
       <c r="H82">
         <v>-3.0867807865142818</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>62.85</v>
+      </c>
+      <c r="J82">
+        <v>-0.76</v>
+      </c>
+      <c r="K82">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3922,7 +4681,7 @@
         <v>-2.770339727401733</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3948,7 +4707,7 @@
         <v>-3.093396902084351</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3974,7 +4733,7 @@
         <v>-2.5360488891601558</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4000,7 +4759,7 @@
         <v>-2.8990681171417241</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4026,7 +4785,7 @@
         <v>-3.1899294853210449</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4052,7 +4811,7 @@
         <v>-2.5842947959899898</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4078,7 +4837,7 @@
         <v>-3.2344071865081792</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4104,7 +4863,7 @@
         <v>-2.5873222351074219</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4130,7 +4889,7 @@
         <v>-2.918926477432251</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4156,7 +4915,7 @@
         <v>-2.7849135398864751</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4182,7 +4941,7 @@
         <v>-2.537749290466309</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4208,7 +4967,7 @@
         <v>-3.2353239059448242</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4234,7 +4993,7 @@
         <v>-3.028500080108643</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
